--- a/uploads/attachments/2020/FebMobile subs.xlsx
+++ b/uploads/attachments/2020/FebMobile subs.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\subs\Mobile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20060" windowHeight="7940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="jAN" sheetId="1" r:id="rId1"/>
     <sheet name="FEB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -41,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +231,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -272,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,9 +317,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,6 +352,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,22 +528,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -548,7 +563,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -578,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>43678</v>
       </c>
@@ -615,7 +630,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>43679</v>
       </c>
@@ -652,7 +667,7 @@
         <v>11847</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>43680</v>
       </c>
@@ -689,7 +704,7 @@
         <v>11994</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>43681</v>
       </c>
@@ -726,7 +741,7 @@
         <v>12141</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43682</v>
       </c>
@@ -763,7 +778,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>43683</v>
       </c>
@@ -800,7 +815,7 @@
         <v>12435</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43684</v>
       </c>
@@ -837,7 +852,7 @@
         <v>12582</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>43685</v>
       </c>
@@ -874,7 +889,7 @@
         <v>12729</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43686</v>
       </c>
@@ -911,7 +926,7 @@
         <v>12876</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>43687</v>
       </c>
@@ -948,7 +963,7 @@
         <v>13023</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>43688</v>
       </c>
@@ -985,7 +1000,7 @@
         <v>13170</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>43689</v>
       </c>
@@ -1022,7 +1037,7 @@
         <v>13317</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>43690</v>
       </c>
@@ -1059,7 +1074,7 @@
         <v>13464</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>43691</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>13611</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>43692</v>
       </c>
@@ -1133,7 +1148,7 @@
         <v>13758</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43693</v>
       </c>
@@ -1170,7 +1185,7 @@
         <v>13905</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>43694</v>
       </c>
@@ -1207,7 +1222,7 @@
         <v>14052</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>43695</v>
       </c>
@@ -1244,7 +1259,7 @@
         <v>14199</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>43696</v>
       </c>
@@ -1281,7 +1296,7 @@
         <v>14346</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>43697</v>
       </c>
@@ -1318,7 +1333,7 @@
         <v>14493</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>43698</v>
       </c>
@@ -1355,7 +1370,7 @@
         <v>14640</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>43699</v>
       </c>
@@ -1392,7 +1407,7 @@
         <v>14787</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>43700</v>
       </c>
@@ -1429,7 +1444,7 @@
         <v>14934</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>43701</v>
       </c>
@@ -1466,7 +1481,7 @@
         <v>15081</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>43702</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>15228</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>43703</v>
       </c>
@@ -1540,7 +1555,7 @@
         <v>15375</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>43704</v>
       </c>
@@ -1577,7 +1592,7 @@
         <v>15522</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>43705</v>
       </c>
@@ -1614,7 +1629,7 @@
         <v>15669</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>43706</v>
       </c>
@@ -1651,7 +1666,7 @@
         <v>15816</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>43707</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>15963</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>43708</v>
       </c>
@@ -1736,21 +1751,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="J3" sqref="J3:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1785,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -1800,7 +1815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>43678</v>
       </c>
@@ -1825,11 +1840,11 @@
         <v>1900</v>
       </c>
       <c r="H3" s="6">
-        <f>SUM(B3+E30)</f>
-        <v>24200</v>
+        <f>SUM(B3+E3)</f>
+        <v>21500</v>
       </c>
       <c r="I3" s="6">
-        <f>SUM(C3+F3)</f>
+        <f>C3+F3</f>
         <v>1400</v>
       </c>
       <c r="J3" s="6">
@@ -1837,7 +1852,7 @@
         <v>22900</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>43679</v>
       </c>
@@ -1862,19 +1877,19 @@
         <v>1980</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H33" si="2">SUM(B4+E31)</f>
-        <v>24400</v>
+        <f t="shared" ref="H4:H33" si="2">SUM(B4+E4)</f>
+        <v>21700</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:J33" si="3">SUM(C4+F4)</f>
+        <f>C4+F4</f>
         <v>1370</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J4:J33" si="3">SUM(D4+G4)</f>
         <v>23070</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>43680</v>
       </c>
@@ -1900,10 +1915,10 @@
       </c>
       <c r="H5" s="6">
         <f t="shared" si="2"/>
-        <v>24600</v>
+        <v>21900</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I4:I33" si="4">C5+F5</f>
         <v>1340</v>
       </c>
       <c r="J5" s="6">
@@ -1911,7 +1926,7 @@
         <v>23240</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>43681</v>
       </c>
@@ -1937,10 +1952,10 @@
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>24800</v>
+        <v>22100</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1310</v>
       </c>
       <c r="J6" s="6">
@@ -1948,7 +1963,7 @@
         <v>23410</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>43682</v>
       </c>
@@ -1974,10 +1989,10 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>20400</v>
+        <v>22300</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1280</v>
       </c>
       <c r="J7" s="6">
@@ -1985,7 +2000,7 @@
         <v>23580</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>43683</v>
       </c>
@@ -2011,10 +2026,10 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>20500</v>
+        <v>22500</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="J8" s="6">
@@ -2022,7 +2037,7 @@
         <v>23750</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>43684</v>
       </c>
@@ -2048,10 +2063,10 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>20600</v>
+        <v>22700</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1220</v>
       </c>
       <c r="J9" s="6">
@@ -2059,7 +2074,7 @@
         <v>23920</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>43685</v>
       </c>
@@ -2085,10 +2100,10 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>20700</v>
+        <v>22900</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1190</v>
       </c>
       <c r="J10" s="6">
@@ -2096,7 +2111,7 @@
         <v>24090</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>43686</v>
       </c>
@@ -2122,10 +2137,10 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>20800</v>
+        <v>23100</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1160</v>
       </c>
       <c r="J11" s="6">
@@ -2133,7 +2148,7 @@
         <v>24260</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>43687</v>
       </c>
@@ -2159,10 +2174,10 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>20900</v>
+        <v>23300</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1130</v>
       </c>
       <c r="J12" s="6">
@@ -2170,7 +2185,7 @@
         <v>24430</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>43688</v>
       </c>
@@ -2196,10 +2211,10 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>23500</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1100</v>
       </c>
       <c r="J13" s="6">
@@ -2207,7 +2222,7 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>43689</v>
       </c>
@@ -2233,10 +2248,10 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" si="2"/>
-        <v>21100</v>
+        <v>23700</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1070</v>
       </c>
       <c r="J14" s="6">
@@ -2244,7 +2259,7 @@
         <v>24770</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>43690</v>
       </c>
@@ -2270,10 +2285,10 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" si="2"/>
-        <v>21200</v>
+        <v>23900</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1040</v>
       </c>
       <c r="J15" s="6">
@@ -2281,7 +2296,7 @@
         <v>24940</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>43691</v>
       </c>
@@ -2307,10 +2322,10 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" si="2"/>
-        <v>21300</v>
+        <v>24100</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1010</v>
       </c>
       <c r="J16" s="6">
@@ -2318,7 +2333,7 @@
         <v>25110</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>43692</v>
       </c>
@@ -2344,10 +2359,10 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>21400</v>
+        <v>24300</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>980</v>
       </c>
       <c r="J17" s="6">
@@ -2355,7 +2370,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>43693</v>
       </c>
@@ -2381,10 +2396,10 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>950</v>
       </c>
       <c r="J18" s="6">
@@ -2392,7 +2407,7 @@
         <v>25450</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>43694</v>
       </c>
@@ -2418,10 +2433,10 @@
       </c>
       <c r="H19" s="6">
         <f t="shared" si="2"/>
-        <v>21600</v>
+        <v>24700</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>920</v>
       </c>
       <c r="J19" s="6">
@@ -2429,7 +2444,7 @@
         <v>25620</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>43695</v>
       </c>
@@ -2455,10 +2470,10 @@
       </c>
       <c r="H20" s="6">
         <f t="shared" si="2"/>
-        <v>21700</v>
+        <v>24900</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>890</v>
       </c>
       <c r="J20" s="6">
@@ -2466,7 +2481,7 @@
         <v>25790</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>43696</v>
       </c>
@@ -2492,10 +2507,10 @@
       </c>
       <c r="H21" s="6">
         <f t="shared" si="2"/>
-        <v>21800</v>
+        <v>25100</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>860</v>
       </c>
       <c r="J21" s="6">
@@ -2503,7 +2518,7 @@
         <v>25960</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>43697</v>
       </c>
@@ -2529,10 +2544,10 @@
       </c>
       <c r="H22" s="6">
         <f t="shared" si="2"/>
-        <v>21900</v>
+        <v>25300</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>830</v>
       </c>
       <c r="J22" s="6">
@@ -2540,7 +2555,7 @@
         <v>26130</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>43698</v>
       </c>
@@ -2566,10 +2581,10 @@
       </c>
       <c r="H23" s="6">
         <f t="shared" si="2"/>
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
       <c r="J23" s="6">
@@ -2577,7 +2592,7 @@
         <v>26300</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>43699</v>
       </c>
@@ -2603,10 +2618,10 @@
       </c>
       <c r="H24" s="6">
         <f t="shared" si="2"/>
-        <v>22100</v>
+        <v>25700</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>770</v>
       </c>
       <c r="J24" s="6">
@@ -2614,7 +2629,7 @@
         <v>26470</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>43700</v>
       </c>
@@ -2640,10 +2655,10 @@
       </c>
       <c r="H25" s="6">
         <f t="shared" si="2"/>
-        <v>22200</v>
+        <v>25900</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>740</v>
       </c>
       <c r="J25" s="6">
@@ -2651,7 +2666,7 @@
         <v>26640</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>43701</v>
       </c>
@@ -2677,10 +2692,10 @@
       </c>
       <c r="H26" s="6">
         <f t="shared" si="2"/>
-        <v>22300</v>
+        <v>26100</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>710</v>
       </c>
       <c r="J26" s="6">
@@ -2688,7 +2703,7 @@
         <v>26810</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>43702</v>
       </c>
@@ -2714,10 +2729,10 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" si="2"/>
-        <v>22400</v>
+        <v>26300</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>680</v>
       </c>
       <c r="J27" s="6">
@@ -2725,7 +2740,7 @@
         <v>26980</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>43703</v>
       </c>
@@ -2751,10 +2766,10 @@
       </c>
       <c r="H28" s="6">
         <f t="shared" si="2"/>
-        <v>22500</v>
+        <v>26500</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>650</v>
       </c>
       <c r="J28" s="6">
@@ -2762,7 +2777,7 @@
         <v>27150</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>43704</v>
       </c>
@@ -2788,10 +2803,10 @@
       </c>
       <c r="H29" s="6">
         <f t="shared" si="2"/>
-        <v>22600</v>
+        <v>26700</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>620</v>
       </c>
       <c r="J29" s="6">
@@ -2799,7 +2814,7 @@
         <v>27320</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>43705</v>
       </c>
@@ -2825,10 +2840,10 @@
       </c>
       <c r="H30" s="6">
         <f t="shared" si="2"/>
-        <v>22700</v>
+        <v>26900</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>590</v>
       </c>
       <c r="J30" s="6">
@@ -2836,7 +2851,7 @@
         <v>27490</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>43706</v>
       </c>
@@ -2862,10 +2877,10 @@
       </c>
       <c r="H31" s="6">
         <f t="shared" si="2"/>
-        <v>22800</v>
+        <v>27100</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>560</v>
       </c>
       <c r="J31" s="6">
@@ -2873,7 +2888,7 @@
         <v>27660</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>43707</v>
       </c>
@@ -2899,10 +2914,10 @@
       </c>
       <c r="H32" s="6">
         <f t="shared" si="2"/>
-        <v>22900</v>
+        <v>27300</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>530</v>
       </c>
       <c r="J32" s="6">
@@ -2910,7 +2925,7 @@
         <v>27830</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>43708</v>
       </c>
@@ -2936,10 +2951,10 @@
       </c>
       <c r="H33" s="6">
         <f t="shared" si="2"/>
-        <v>23000</v>
+        <v>27500</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="J33" s="6">

--- a/uploads/attachments/2020/FebMobile subs.xlsx
+++ b/uploads/attachments/2020/FebMobile subs.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\Hackathon_2020\Data\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="jAN" sheetId="1" r:id="rId1"/>
     <sheet name="FEB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,8 +618,8 @@
         <v>1200</v>
       </c>
       <c r="H3" s="1">
-        <f>B3+E3</f>
-        <v>11000</v>
+        <f>SUM(B3+E30)</f>
+        <v>12350</v>
       </c>
       <c r="I3" s="1">
         <f>SUM(C3+F3)</f>
@@ -655,8 +655,8 @@
         <v>1249</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H33" si="2">B4+E4</f>
-        <v>11150</v>
+        <f t="shared" ref="H4:H33" si="2">SUM(B4+E31)</f>
+        <v>12500</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I33" si="3">SUM(C4+F4)</f>
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="6">
         <f t="shared" si="2"/>
-        <v>11300</v>
+        <v>12650</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="3"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>11450</v>
+        <v>12800</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="3"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>11600</v>
+        <v>12150</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="3"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="3"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>11900</v>
+        <v>10600</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="3"/>
@@ -878,7 +878,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>12050</v>
+        <v>10700</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="3"/>
@@ -915,7 +915,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>12200</v>
+        <v>10800</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="3"/>
@@ -952,7 +952,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>12350</v>
+        <v>10900</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="3"/>
@@ -989,7 +989,7 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" si="2"/>
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="3"/>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" si="2"/>
-        <v>12650</v>
+        <v>11100</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="3"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" si="2"/>
-        <v>12800</v>
+        <v>11200</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="3"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" si="2"/>
-        <v>12950</v>
+        <v>11300</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="3"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>13100</v>
+        <v>11400</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="3"/>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>13250</v>
+        <v>11500</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="3"/>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="H19" s="6">
         <f t="shared" si="2"/>
-        <v>13400</v>
+        <v>11600</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="3"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H20" s="6">
         <f t="shared" si="2"/>
-        <v>13550</v>
+        <v>11700</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="3"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H21" s="6">
         <f t="shared" si="2"/>
-        <v>13700</v>
+        <v>11800</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="3"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="H22" s="6">
         <f t="shared" si="2"/>
-        <v>13850</v>
+        <v>11900</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="3"/>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H23" s="6">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="3"/>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="H24" s="6">
         <f t="shared" si="2"/>
-        <v>14150</v>
+        <v>12100</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="3"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="H25" s="6">
         <f t="shared" si="2"/>
-        <v>14300</v>
+        <v>12200</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="3"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="H26" s="6">
         <f t="shared" si="2"/>
-        <v>14450</v>
+        <v>12300</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="3"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" si="2"/>
-        <v>14600</v>
+        <v>12400</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="3"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="H28" s="6">
         <f t="shared" si="2"/>
-        <v>14750</v>
+        <v>12500</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="3"/>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="H29" s="6">
         <f t="shared" si="2"/>
-        <v>14900</v>
+        <v>12600</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="3"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="H30" s="6">
         <f t="shared" si="2"/>
-        <v>15050</v>
+        <v>12700</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="3"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="H31" s="6">
         <f t="shared" si="2"/>
-        <v>15200</v>
+        <v>12800</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="3"/>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="H32" s="6">
         <f t="shared" si="2"/>
-        <v>15350</v>
+        <v>12900</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="3"/>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H33" s="6">
         <f t="shared" si="2"/>
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="3"/>
@@ -1738,6 +1738,44 @@
       <c r="J33" s="6">
         <f t="shared" si="4"/>
         <v>16110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>AVERAGE(B3:B33)</f>
+        <v>11500</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:J34" si="5">AVERAGE(C3:C33)</f>
+        <v>470</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>11970</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>1750</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>1935</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>11869.354838709678</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>655</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>13905</v>
       </c>
     </row>
   </sheetData>
@@ -1752,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,6 +3000,44 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>AVERAGE(B3:B33)</f>
+        <v>21500</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:J34" si="5">AVERAGE(C3:C33)</f>
+        <v>850</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>22350</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>3100</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>24500</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>950</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>25450</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>

--- a/uploads/attachments/2020/FebMobile subs.xlsx
+++ b/uploads/attachments/2020/FebMobile subs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\after event\data\subs\Mobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Super Final data\subs\Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7605" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7605" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JAN" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:J34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -5424,8 +5424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:J34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6646,8 +6646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:J33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7869,7 +7869,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:J34"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9090,8 +9090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10310,8 +10310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
